--- a/data/verbenListe.xlsx
+++ b/data/verbenListe.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="202">
   <si>
     <t>Verb</t>
   </si>
@@ -134,9 +137,6 @@
     <t>sich erholen</t>
   </si>
   <si>
-    <t>sich erinnern</t>
-  </si>
-  <si>
     <t>sich erkundigen</t>
   </si>
   <si>
@@ -170,9 +170,6 @@
     <t>halten</t>
   </si>
   <si>
-    <t>(sich) halten</t>
-  </si>
-  <si>
     <t>handeln</t>
   </si>
   <si>
@@ -384,6 +381,258 @@
   </si>
   <si>
     <t>Präposition</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>Achte bei der Prüfung genau auf die Aufgabenstellung</t>
+  </si>
+  <si>
+    <t>Bei einer Bewerbung koomt es nicht nur auf gute Noten an</t>
+  </si>
+  <si>
+    <t>Man muss sich nicht an jeden Trend anpassen</t>
+  </si>
+  <si>
+    <t>Hat die Firma schon auf deine Berwerbung geantwortet?</t>
+  </si>
+  <si>
+    <t>Ich habe mich heute so über meine Kollegin geärtert</t>
+  </si>
+  <si>
+    <t>Könntest du heute Abend auf meine Kinder aufpassen?</t>
+  </si>
+  <si>
+    <t>ausgeben</t>
+  </si>
+  <si>
+    <t>Wie viel hast du für das Geschenk ausgegeben?</t>
+  </si>
+  <si>
+    <t>Wir wollten uns für das schöne Geschenk bedanken</t>
+  </si>
+  <si>
+    <t>sich beklagen</t>
+  </si>
+  <si>
+    <t>Der Gast hat sich ständig über das Essen beklagt</t>
+  </si>
+  <si>
+    <t>Im Fernsehen wurde über das Ereignis kaum berichtet</t>
+  </si>
+  <si>
+    <t>Herr Müller hat sich gestern über den Lärm beschwert</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t>Er hat sich als Event-Manager beworben</t>
+  </si>
+  <si>
+    <t>Er hat sich auf/um die Stelle als Event-Manager beworben</t>
+  </si>
+  <si>
+    <t>Könnte ich dich um einen Gefallen bitten?</t>
+  </si>
+  <si>
+    <t>Ich möchte dir für deine Unterstützung danken</t>
+  </si>
+  <si>
+    <t>Denk doch nicht immer nur an dich!</t>
+  </si>
+  <si>
+    <t>Ich will nicht schon wieder über dieses Thema diskutieren</t>
+  </si>
+  <si>
+    <t>Dirk geht einfach nie auf die Meinung anderer ein</t>
+  </si>
+  <si>
+    <t>sich einsetzen</t>
+  </si>
+  <si>
+    <t>einziehen</t>
+  </si>
+  <si>
+    <t>Wir setzen uns für eine bessere Ausbildung ein</t>
+  </si>
+  <si>
+    <t>Meine ganze Familie setzt sich gegen Atomenergie ein</t>
+  </si>
+  <si>
+    <t>Wir sind erst vor kurzem in die neue Wohnung eingezogen</t>
+  </si>
+  <si>
+    <t>Viele Leute engagieren sich für einen guten Zweck</t>
+  </si>
+  <si>
+    <t>Wir haben uns für/gegen dieses Sofa entschieden</t>
+  </si>
+  <si>
+    <t>Kristina hat sich heute für ihren Fehler entschuldigt</t>
+  </si>
+  <si>
+    <t>(sich) erinnern</t>
+  </si>
+  <si>
+    <t>Erinnerst du dich an unser Gespräch neulich?</t>
+  </si>
+  <si>
+    <t>Was hat er denn über seinen Chef erzählt?</t>
+  </si>
+  <si>
+    <t>Ich freue mich auf unseren Ausflug am Wochenende</t>
+  </si>
+  <si>
+    <t>Meine Eltern haben sich sehr über meinen Besuch gefreut</t>
+  </si>
+  <si>
+    <t>Ich kann mich einfach nicht an dieses Essen gewöhnen</t>
+  </si>
+  <si>
+    <t>Seine Eltern glauben an ihn, dar macht ihm Mut</t>
+  </si>
+  <si>
+    <t>Ich halte Sie für eine sehr kompetente Fachkraft</t>
+  </si>
+  <si>
+    <t>sich halten</t>
+  </si>
+  <si>
+    <t>Halte dich doch bitte an unsere Abmachung!</t>
+  </si>
+  <si>
+    <t>Hier handelt es sich um eine seltene Pflanze</t>
+  </si>
+  <si>
+    <t>Ich möchte Sie noch auf unsere Sonderangebote hinweisen</t>
+  </si>
+  <si>
+    <t>Wir haben lange auf besseres Wetter gehofft</t>
+  </si>
+  <si>
+    <t>(sich) informieren</t>
+  </si>
+  <si>
+    <t>Vor seiner Bewerbung hat er sich über die Firma informiert</t>
+  </si>
+  <si>
+    <t>Maren interessiert sich sehr für Tiere und Naturschutz</t>
+  </si>
+  <si>
+    <t>Das Unternehmen hat viel Geld in dieses Projekt investiert</t>
+  </si>
+  <si>
+    <t>Sie kämpfen für eine saubere Umwelt</t>
+  </si>
+  <si>
+    <t>Sie kämpfen gegen Umweltverschmutzung</t>
+  </si>
+  <si>
+    <t>Seid leiser! Ich muss mich auf die Aufgabe konzentrieren</t>
+  </si>
+  <si>
+    <t>Wer kümmert sich um den Hund, wenn wir weg sind?</t>
+  </si>
+  <si>
+    <t>Über diesen Witz kann ich echt überhaupt nicht lachen</t>
+  </si>
+  <si>
+    <t>Ich denke über dein Angebot nach und gebe dir Bescheid</t>
+  </si>
+  <si>
+    <t>Wie hat dein Chef eigentlich auf deinen Vorschlag reagiert?</t>
+  </si>
+  <si>
+    <t>Wir haben lange über das Problem geredet</t>
+  </si>
+  <si>
+    <t>schimpfen</t>
+  </si>
+  <si>
+    <t>Er schimpft den ganzen Abend über seine Kollegen</t>
+  </si>
+  <si>
+    <t>Olaf will für seine kranken Eltern sorgen</t>
+  </si>
+  <si>
+    <t>Katja sorgt sich oft zu sehr um ihre berufliche Zukunft</t>
+  </si>
+  <si>
+    <t>Er hat sich während des Studiums auf Chirurgie spezialisiert</t>
+  </si>
+  <si>
+    <t>Habt ihr auch über die Arbeitsbedingungen gesprochen?</t>
+  </si>
+  <si>
+    <t>Streitet ihr schon wieder über die gleiche Frage?</t>
+  </si>
+  <si>
+    <t>Im Beziehungen wird oft um Geld gestritten</t>
+  </si>
+  <si>
+    <t>Wir haben uns den ganzen Abend über Politik unterhalten</t>
+  </si>
+  <si>
+    <t>Auf meinen besten Freund kann ich mich immer verlassen</t>
+  </si>
+  <si>
+    <t>Nina hat sich schon während der Schulzeit in Paul verliebt</t>
+  </si>
+  <si>
+    <t>Ich kann am Morgen einfach nicht auf Kaffee verzichten</t>
+  </si>
+  <si>
+    <t>Hast du dich gut auf das Vorstellunggespräch vorbereitet?</t>
+  </si>
+  <si>
+    <t>Auf wen wartest du denn?</t>
+  </si>
+  <si>
+    <t>sich wenden</t>
+  </si>
+  <si>
+    <t>Wenden Sie sich bitte an Herrn Kohl</t>
+  </si>
+  <si>
+    <t>Die Firma wirbt für ihre Produkte</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>Wir haben um ein Abendessen gewettet</t>
+  </si>
+  <si>
+    <t>Ich habe mich sehr über diese Frage gewundert</t>
+  </si>
+  <si>
+    <t>Sie regt sich über kleine Dinge auf</t>
+  </si>
+  <si>
+    <t>Alle Mitglieder können sich über das Forum austauschen</t>
+  </si>
+  <si>
+    <t>Begeistern Sie sich für Fußball?</t>
+  </si>
+  <si>
+    <t>Die größeren Symbole eignen sich für sehbehinderte Personen</t>
+  </si>
+  <si>
+    <t>Sie protestieren gegen Steuergesetze</t>
+  </si>
+  <si>
+    <t>Das Team aus der Serie A begann mit Siegen über den FC PAOK</t>
+  </si>
+  <si>
+    <t>Wir stehen für Qualität, Kompetenz und Zuverlässigkeit</t>
+  </si>
+  <si>
+    <t>Viele Branchen vertrauen auf unsere Qualitätsprodukte</t>
+  </si>
+  <si>
+    <t>Beide wirken auf einen Behälter aus reiner Kunststofffolie</t>
   </si>
 </sst>
 </file>
@@ -718,1394 +967,1724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
       <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
+        <v>141</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" t="s">
-        <v>108</v>
+        <v>13</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>114</v>
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>111</v>
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B104" t="s">
-        <v>108</v>
+        <v>47</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
+      </c>
+      <c r="B114" t="s">
+        <v>106</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" t="s">
         <v>106</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
+      </c>
+      <c r="B123" t="s">
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C125" t="s">
-        <v>103</v>
+      <c r="C132" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1">
+    <sortState ref="A2:D125">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/verbenListe.xlsx
+++ b/data/verbenListe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="360">
   <si>
     <t>Verb</t>
   </si>
@@ -260,12 +260,6 @@
     <t>sich treffen</t>
   </si>
   <si>
-    <t>sich trennen</t>
-  </si>
-  <si>
-    <t>(sich) überzeugen</t>
-  </si>
-  <si>
     <t>sich unterhalten</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>sich verlieben</t>
   </si>
   <si>
-    <t>verstehen</t>
-  </si>
-  <si>
     <t>sich verstehen</t>
   </si>
   <si>
@@ -386,253 +377,736 @@
     <t>Beispiel</t>
   </si>
   <si>
-    <t>Achte bei der Prüfung genau auf die Aufgabenstellung</t>
-  </si>
-  <si>
-    <t>Bei einer Bewerbung koomt es nicht nur auf gute Noten an</t>
-  </si>
-  <si>
-    <t>Man muss sich nicht an jeden Trend anpassen</t>
-  </si>
-  <si>
-    <t>Hat die Firma schon auf deine Berwerbung geantwortet?</t>
-  </si>
-  <si>
-    <t>Ich habe mich heute so über meine Kollegin geärtert</t>
-  </si>
-  <si>
-    <t>Könntest du heute Abend auf meine Kinder aufpassen?</t>
-  </si>
-  <si>
     <t>ausgeben</t>
   </si>
   <si>
-    <t>Wie viel hast du für das Geschenk ausgegeben?</t>
-  </si>
-  <si>
-    <t>Wir wollten uns für das schöne Geschenk bedanken</t>
-  </si>
-  <si>
     <t>sich beklagen</t>
   </si>
   <si>
-    <t>Der Gast hat sich ständig über das Essen beklagt</t>
-  </si>
-  <si>
-    <t>Im Fernsehen wurde über das Ereignis kaum berichtet</t>
-  </si>
-  <si>
-    <t>Herr Müller hat sich gestern über den Lärm beschwert</t>
-  </si>
-  <si>
     <t>als</t>
   </si>
   <si>
-    <t>Er hat sich als Event-Manager beworben</t>
-  </si>
-  <si>
-    <t>Er hat sich auf/um die Stelle als Event-Manager beworben</t>
-  </si>
-  <si>
-    <t>Könnte ich dich um einen Gefallen bitten?</t>
-  </si>
-  <si>
-    <t>Ich möchte dir für deine Unterstützung danken</t>
-  </si>
-  <si>
-    <t>Denk doch nicht immer nur an dich!</t>
-  </si>
-  <si>
-    <t>Ich will nicht schon wieder über dieses Thema diskutieren</t>
-  </si>
-  <si>
-    <t>Dirk geht einfach nie auf die Meinung anderer ein</t>
-  </si>
-  <si>
     <t>sich einsetzen</t>
   </si>
   <si>
     <t>einziehen</t>
   </si>
   <si>
-    <t>Wir setzen uns für eine bessere Ausbildung ein</t>
-  </si>
-  <si>
-    <t>Meine ganze Familie setzt sich gegen Atomenergie ein</t>
-  </si>
-  <si>
-    <t>Wir sind erst vor kurzem in die neue Wohnung eingezogen</t>
-  </si>
-  <si>
-    <t>Viele Leute engagieren sich für einen guten Zweck</t>
-  </si>
-  <si>
-    <t>Wir haben uns für/gegen dieses Sofa entschieden</t>
-  </si>
-  <si>
-    <t>Kristina hat sich heute für ihren Fehler entschuldigt</t>
-  </si>
-  <si>
     <t>(sich) erinnern</t>
   </si>
   <si>
-    <t>Erinnerst du dich an unser Gespräch neulich?</t>
-  </si>
-  <si>
-    <t>Was hat er denn über seinen Chef erzählt?</t>
-  </si>
-  <si>
-    <t>Ich freue mich auf unseren Ausflug am Wochenende</t>
-  </si>
-  <si>
-    <t>Meine Eltern haben sich sehr über meinen Besuch gefreut</t>
-  </si>
-  <si>
-    <t>Ich kann mich einfach nicht an dieses Essen gewöhnen</t>
-  </si>
-  <si>
-    <t>Seine Eltern glauben an ihn, dar macht ihm Mut</t>
-  </si>
-  <si>
-    <t>Ich halte Sie für eine sehr kompetente Fachkraft</t>
-  </si>
-  <si>
     <t>sich halten</t>
   </si>
   <si>
-    <t>Halte dich doch bitte an unsere Abmachung!</t>
-  </si>
-  <si>
-    <t>Hier handelt es sich um eine seltene Pflanze</t>
-  </si>
-  <si>
-    <t>Ich möchte Sie noch auf unsere Sonderangebote hinweisen</t>
-  </si>
-  <si>
-    <t>Wir haben lange auf besseres Wetter gehofft</t>
-  </si>
-  <si>
     <t>(sich) informieren</t>
   </si>
   <si>
-    <t>Vor seiner Bewerbung hat er sich über die Firma informiert</t>
-  </si>
-  <si>
-    <t>Maren interessiert sich sehr für Tiere und Naturschutz</t>
-  </si>
-  <si>
-    <t>Das Unternehmen hat viel Geld in dieses Projekt investiert</t>
-  </si>
-  <si>
-    <t>Sie kämpfen für eine saubere Umwelt</t>
-  </si>
-  <si>
-    <t>Sie kämpfen gegen Umweltverschmutzung</t>
-  </si>
-  <si>
-    <t>Seid leiser! Ich muss mich auf die Aufgabe konzentrieren</t>
-  </si>
-  <si>
-    <t>Wer kümmert sich um den Hund, wenn wir weg sind?</t>
-  </si>
-  <si>
-    <t>Über diesen Witz kann ich echt überhaupt nicht lachen</t>
-  </si>
-  <si>
-    <t>Ich denke über dein Angebot nach und gebe dir Bescheid</t>
-  </si>
-  <si>
-    <t>Wie hat dein Chef eigentlich auf deinen Vorschlag reagiert?</t>
-  </si>
-  <si>
-    <t>Wir haben lange über das Problem geredet</t>
-  </si>
-  <si>
     <t>schimpfen</t>
   </si>
   <si>
-    <t>Er schimpft den ganzen Abend über seine Kollegen</t>
-  </si>
-  <si>
-    <t>Olaf will für seine kranken Eltern sorgen</t>
-  </si>
-  <si>
-    <t>Katja sorgt sich oft zu sehr um ihre berufliche Zukunft</t>
-  </si>
-  <si>
-    <t>Er hat sich während des Studiums auf Chirurgie spezialisiert</t>
-  </si>
-  <si>
-    <t>Habt ihr auch über die Arbeitsbedingungen gesprochen?</t>
-  </si>
-  <si>
-    <t>Streitet ihr schon wieder über die gleiche Frage?</t>
-  </si>
-  <si>
-    <t>Im Beziehungen wird oft um Geld gestritten</t>
-  </si>
-  <si>
-    <t>Wir haben uns den ganzen Abend über Politik unterhalten</t>
-  </si>
-  <si>
-    <t>Auf meinen besten Freund kann ich mich immer verlassen</t>
-  </si>
-  <si>
-    <t>Nina hat sich schon während der Schulzeit in Paul verliebt</t>
-  </si>
-  <si>
-    <t>Ich kann am Morgen einfach nicht auf Kaffee verzichten</t>
-  </si>
-  <si>
-    <t>Hast du dich gut auf das Vorstellunggespräch vorbereitet?</t>
-  </si>
-  <si>
-    <t>Auf wen wartest du denn?</t>
-  </si>
-  <si>
     <t>sich wenden</t>
   </si>
   <si>
-    <t>Wenden Sie sich bitte an Herrn Kohl</t>
-  </si>
-  <si>
-    <t>Die Firma wirbt für ihre Produkte</t>
-  </si>
-  <si>
     <t>wetten</t>
   </si>
   <si>
-    <t>Wir haben um ein Abendessen gewettet</t>
-  </si>
-  <si>
-    <t>Ich habe mich sehr über diese Frage gewundert</t>
-  </si>
-  <si>
-    <t>Sie regt sich über kleine Dinge auf</t>
-  </si>
-  <si>
-    <t>Alle Mitglieder können sich über das Forum austauschen</t>
-  </si>
-  <si>
-    <t>Begeistern Sie sich für Fußball?</t>
-  </si>
-  <si>
-    <t>Die größeren Symbole eignen sich für sehbehinderte Personen</t>
-  </si>
-  <si>
-    <t>Sie protestieren gegen Steuergesetze</t>
-  </si>
-  <si>
-    <t>Das Team aus der Serie A begann mit Siegen über den FC PAOK</t>
-  </si>
-  <si>
-    <t>Wir stehen für Qualität, Kompetenz und Zuverlässigkeit</t>
-  </si>
-  <si>
-    <t>Viele Branchen vertrauen auf unsere Qualitätsprodukte</t>
-  </si>
-  <si>
-    <t>Beide wirken auf einen Behälter aus reiner Kunststofffolie</t>
+    <t>abhalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von </t>
+  </si>
+  <si>
+    <t>abmelden</t>
+  </si>
+  <si>
+    <t>abraten</t>
+  </si>
+  <si>
+    <t>anrufen</t>
+  </si>
+  <si>
+    <t>arbeiten</t>
+  </si>
+  <si>
+    <t>ausgehen</t>
+  </si>
+  <si>
+    <t>sich auskennen</t>
+  </si>
+  <si>
+    <t>sich befassen</t>
+  </si>
+  <si>
+    <t>sich befinden</t>
+  </si>
+  <si>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>bestellen</t>
+  </si>
+  <si>
+    <t>sich beteiligen</t>
+  </si>
+  <si>
+    <t>bringen</t>
+  </si>
+  <si>
+    <t>(sich) entfernen</t>
+  </si>
+  <si>
+    <t>erhalten</t>
+  </si>
+  <si>
+    <t>erkennen</t>
+  </si>
+  <si>
+    <t>erziehen</t>
+  </si>
+  <si>
+    <t>experimentieren</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>klarkommen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>sich melden</t>
+  </si>
+  <si>
+    <t>motivieren</t>
+  </si>
+  <si>
+    <t>nachfragen</t>
+  </si>
+  <si>
+    <t>naschen</t>
+  </si>
+  <si>
+    <t>sich orientieren</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>raten</t>
+  </si>
+  <si>
+    <t>(sich) retten</t>
+  </si>
+  <si>
+    <t>sich richten</t>
+  </si>
+  <si>
+    <t>speichern</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>telefonieren</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>(sich) trennen</t>
+  </si>
+  <si>
+    <t>überreden</t>
+  </si>
+  <si>
+    <t>überzeugen</t>
+  </si>
+  <si>
+    <t>umgehen</t>
+  </si>
+  <si>
+    <t>unterbrechen</t>
+  </si>
+  <si>
+    <t>unterstützen</t>
+  </si>
+  <si>
+    <t>verlangen</t>
+  </si>
+  <si>
+    <t>(sich) verstecken</t>
+  </si>
+  <si>
+    <t>vorbeikommen</t>
+  </si>
+  <si>
+    <t>vorkommen</t>
+  </si>
+  <si>
+    <t>vortragen</t>
+  </si>
+  <si>
+    <t>weglaufen</t>
+  </si>
+  <si>
+    <t>sich wünschen</t>
+  </si>
+  <si>
+    <t>zurückkommen</t>
+  </si>
+  <si>
+    <t>zwingen</t>
+  </si>
+  <si>
+    <t>'Achte bei der Prüfung genau auf die Aufgabenstellung'</t>
+  </si>
+  <si>
+    <t>'Bei einer Bewerbung koomt es nicht nur auf gute Noten an'</t>
+  </si>
+  <si>
+    <t>'Man muss sich nicht an jeden Trend anpassen'</t>
+  </si>
+  <si>
+    <t>'Hat die Firma schon auf deine Berwerbung geantwortet?'</t>
+  </si>
+  <si>
+    <t>'Ich habe mich heute so über meine Kollegin geärtert'</t>
+  </si>
+  <si>
+    <t>'Könntest du heute Abend auf meine Kinder aufpassen?'</t>
+  </si>
+  <si>
+    <t>'Sie regt sich über kleine Dinge auf'</t>
+  </si>
+  <si>
+    <t>'Wie viel hast du für das Geschenk ausgegeben?'</t>
+  </si>
+  <si>
+    <t>'Alle Mitglieder können sich über das Forum austauschen'</t>
+  </si>
+  <si>
+    <t>'Wir wollten uns für das schöne Geschenk bedanken'</t>
+  </si>
+  <si>
+    <t>'Begeistern Sie sich für Fußball?'</t>
+  </si>
+  <si>
+    <t>'Der Gast hat sich ständig über das Essen beklagt'</t>
+  </si>
+  <si>
+    <t>'Im Fernsehen wurde über das Ereignis kaum berichtet'</t>
+  </si>
+  <si>
+    <t>'Herr Müller hat sich gestern über den Lärm beschwert'</t>
+  </si>
+  <si>
+    <t>'Er hat sich als Event-Manager beworben'</t>
+  </si>
+  <si>
+    <t>'Er hat sich auf/um die Stelle als Event-Manager beworben'</t>
+  </si>
+  <si>
+    <t>'Könnte ich dich um einen Gefallen bitten?'</t>
+  </si>
+  <si>
+    <t>'Ich möchte dir für deine Unterstützung danken'</t>
+  </si>
+  <si>
+    <t>'Denk doch nicht immer nur an dich!'</t>
+  </si>
+  <si>
+    <t>'Ich will nicht schon wieder über dieses Thema diskutieren'</t>
+  </si>
+  <si>
+    <t>'Die größeren Symbole eignen sich für sehbehinderte Personen'</t>
+  </si>
+  <si>
+    <t>'Dirk geht einfach nie auf die Meinung anderer ein'</t>
+  </si>
+  <si>
+    <t>'Wir setzen uns für eine bessere Ausbildung ein'</t>
+  </si>
+  <si>
+    <t>'Meine ganze Familie setzt sich gegen Atomenergie ein'</t>
+  </si>
+  <si>
+    <t>'Wir sind erst vor kurzem in die neue Wohnung eingezogen'</t>
+  </si>
+  <si>
+    <t>'Viele Leute engagieren sich für einen guten Zweck'</t>
+  </si>
+  <si>
+    <t>'Wir haben uns für/gegen dieses Sofa entschieden'</t>
+  </si>
+  <si>
+    <t>'Kristina hat sich heute für ihren Fehler entschuldigt'</t>
+  </si>
+  <si>
+    <t>'Erinnerst du dich an unser Gespräch neulich?'</t>
+  </si>
+  <si>
+    <t>'Was hat er denn über seinen Chef erzählt?'</t>
+  </si>
+  <si>
+    <t>'Ich freue mich auf unseren Ausflug am Wochenende'</t>
+  </si>
+  <si>
+    <t>'Meine Eltern haben sich sehr über meinen Besuch gefreut'</t>
+  </si>
+  <si>
+    <t>'Ich kann mich einfach nicht an dieses Essen gewöhnen'</t>
+  </si>
+  <si>
+    <t>'Seine Eltern glauben an ihn, dar macht ihm Mut'</t>
+  </si>
+  <si>
+    <t>'Ich halte Sie für eine sehr kompetente Fachkraft'</t>
+  </si>
+  <si>
+    <t>'Halte dich doch bitte an unsere Abmachung!'</t>
+  </si>
+  <si>
+    <t>'Hier handelt es sich um eine seltene Pflanze'</t>
+  </si>
+  <si>
+    <t>'Ich möchte Sie noch auf unsere Sonderangebote hinweisen'</t>
+  </si>
+  <si>
+    <t>'Wir haben lange auf besseres Wetter gehofft'</t>
+  </si>
+  <si>
+    <t>'Vor seiner Bewerbung hat er sich über die Firma informiert'</t>
+  </si>
+  <si>
+    <t>'Maren interessiert sich sehr für Tiere und Naturschutz'</t>
+  </si>
+  <si>
+    <t>'Das Unternehmen hat viel Geld in dieses Projekt investiert'</t>
+  </si>
+  <si>
+    <t>'Sie kämpfen gegen Umweltverschmutzung'</t>
+  </si>
+  <si>
+    <t>'Sie kämpfen für eine saubere Umwelt'</t>
+  </si>
+  <si>
+    <t>'Seid leiser! Ich muss mich auf die Aufgabe konzentrieren'</t>
+  </si>
+  <si>
+    <t>'Wer kümmert sich um den Hund, wenn wir weg sind?'</t>
+  </si>
+  <si>
+    <t>'Über diesen Witz kann ich echt überhaupt nicht lachen'</t>
+  </si>
+  <si>
+    <t>'Ich denke über dein Angebot nach und gebe dir Bescheid'</t>
+  </si>
+  <si>
+    <t>'Sie protestieren gegen Steuergesetze'</t>
+  </si>
+  <si>
+    <t>'Wie hat dein Chef eigentlich auf deinen Vorschlag reagiert?'</t>
+  </si>
+  <si>
+    <t>'Wir haben lange über das Problem geredet'</t>
+  </si>
+  <si>
+    <t>'Er schimpft den ganzen Abend über seine Kollegen'</t>
+  </si>
+  <si>
+    <t>'Das Team aus der Serie A begann mit Siegen über den FC PAOK'</t>
+  </si>
+  <si>
+    <t>'Olaf will für seine kranken Eltern sorgen'</t>
+  </si>
+  <si>
+    <t>'Katja sorgt sich oft zu sehr um ihre berufliche Zukunft'</t>
+  </si>
+  <si>
+    <t>'Er hat sich während des Studiums auf Chirurgie spezialisiert'</t>
+  </si>
+  <si>
+    <t>'Habt ihr auch über die Arbeitsbedingungen gesprochen?'</t>
+  </si>
+  <si>
+    <t>'Wir stehen für Qualität, Kompetenz und Zuverlässigkeit'</t>
+  </si>
+  <si>
+    <t>'Im Beziehungen wird oft um Geld gestritten'</t>
+  </si>
+  <si>
+    <t>'Streitet ihr schon wieder über die gleiche Frage?'</t>
+  </si>
+  <si>
+    <t>'Wir haben uns den ganzen Abend über Politik unterhalten'</t>
+  </si>
+  <si>
+    <t>'Auf meinen besten Freund kann ich mich immer verlassen'</t>
+  </si>
+  <si>
+    <t>'Nina hat sich schon während der Schulzeit in Paul verliebt'</t>
+  </si>
+  <si>
+    <t>'Viele Branchen vertrauen auf unsere Qualitätsprodukte'</t>
+  </si>
+  <si>
+    <t>'Ich kann am Morgen einfach nicht auf Kaffee verzichten'</t>
+  </si>
+  <si>
+    <t>'Hast du dich gut auf das Vorstellunggespräch vorbereitet?'</t>
+  </si>
+  <si>
+    <t>'Auf wen wartest du denn?'</t>
+  </si>
+  <si>
+    <t>'Wenden Sie sich bitte an Herrn Kohl'</t>
+  </si>
+  <si>
+    <t>'Die Firma wirbt für ihre Produkte'</t>
+  </si>
+  <si>
+    <t>'Wir haben um ein Abendessen gewettet'</t>
+  </si>
+  <si>
+    <t>'Beide wirken auf einen Behälter aus reiner Kunststofffolie'</t>
+  </si>
+  <si>
+    <t>'Ich habe mich sehr über diese Frage gewundert'</t>
+  </si>
+  <si>
+    <t>'Ich konnte ihn nicht von seinem Vorhaben abhalten'</t>
+  </si>
+  <si>
+    <t>'Der Klimawandel hängt auch von unserem Verhalten ab'</t>
+  </si>
+  <si>
+    <t>'Hast du dich wirklich vom Sportstudio abgemeldet?'</t>
+  </si>
+  <si>
+    <t>'Ich kann euch von diesem Restaurant nur abraten'</t>
+  </si>
+  <si>
+    <t>'Bert sagt, dass er an der Situation nicht ändern kann'</t>
+  </si>
+  <si>
+    <t>'Er hat mit dem Tanzkurs angefangen'</t>
+  </si>
+  <si>
+    <t>'Hast du bei unserem Vermieter angerufen?'</t>
+  </si>
+  <si>
+    <t>'Sie arbeiten an einem großen Projekt'</t>
+  </si>
+  <si>
+    <t>'Er arbeitet bei BMW'</t>
+  </si>
+  <si>
+    <t>'Sie arbeitet in einer großen Firma'</t>
+  </si>
+  <si>
+    <t>'Seine Kinder ängstigen sich vor seinen plötzlichen Wutanfällen'</t>
+  </si>
+  <si>
+    <t>'Kinder, könnt ihr bitte mit dem Lärm aufhören?'</t>
+  </si>
+  <si>
+    <t>'Ich gehe davon aus, dass wir uns morgen wiedersehen'</t>
+  </si>
+  <si>
+    <t>'Er kennt sich gut mit moderner Technik aus'</t>
+  </si>
+  <si>
+    <t>'mit einem Symbol ausdrücken'</t>
+  </si>
+  <si>
+    <t>'Im Forum kann sich Tom mit anderen Betroffenen austauschen'</t>
+  </si>
+  <si>
+    <t>'Ich muss mich unbedingt bei dir bedanken'</t>
+  </si>
+  <si>
+    <t>'Der Film befasst sich mit traditioneller Musik'</t>
+  </si>
+  <si>
+    <t>'Wir befinden uns hier im Zentrum von Hamburg'</t>
+  </si>
+  <si>
+    <t>'Wann beginnst du mit dem Deutschkurs?'</t>
+  </si>
+  <si>
+    <t>'Möchtest du auch etwas zu dieser Diskussion beitragen?'</t>
+  </si>
+  <si>
+    <t>'Unsere Nachbarin hat sich wieder beim Vermieter beklagt'</t>
+  </si>
+  <si>
+    <t>'Matthias berichtet immer sehr ausführlich von seinen Reisen'</t>
+  </si>
+  <si>
+    <t>'Studien beschäftigen sich mit der Quantifizierung von Wasser'</t>
+  </si>
+  <si>
+    <t>'Herr Müller hat sich bei der Hausverwaltung beschwert'</t>
+  </si>
+  <si>
+    <t>'Diese Schokolade besteht hauptsächlich aus Kakao'</t>
+  </si>
+  <si>
+    <t>'Habt ihr die Lieferung bei Herrn Krömer bestellt?'</t>
+  </si>
+  <si>
+    <t>'Habt ihr euch an der Demo gestern beteiligt?'</t>
+  </si>
+  <si>
+    <t>'Susanne hat sich bei einer Software-Firma beworben'</t>
+  </si>
+  <si>
+    <t>'Er bringt mich immer zum Lachen'</t>
+  </si>
+  <si>
+    <t>'Wir haben lange mit unserem Vermieter diskutiert'</t>
+  </si>
+  <si>
+    <t>'zu gegrilltem Fleisch eignen sich süffige Weine besser'</t>
+  </si>
+  <si>
+    <t>'Ich würde dich gern zu meiner Party einladen'</t>
+  </si>
+  <si>
+    <t>'Der Taucher hat sich weit von der Küste entfernt'</t>
+  </si>
+  <si>
+    <t>'Kristina hat sich zu einem Fernstudium entschlossen'</t>
+  </si>
+  <si>
+    <t>'Kristina hat sich heute bei mir entschuldigt'</t>
+  </si>
+  <si>
+    <t>'Haben Sie die Nachricht von Frau Krause erhalten?'</t>
+  </si>
+  <si>
+    <t>'Sie hat sich gut von der Krankheit erholt'</t>
+  </si>
+  <si>
+    <t>'Ich erkenne ihn an seiner Stimme'</t>
+  </si>
+  <si>
+    <t>'Ich habe mich bei/nach der VHS nach Kursen erkundigt'</t>
+  </si>
+  <si>
+    <t>'Was erwartest du von diesem Kurs?'</t>
+  </si>
+  <si>
+    <t>'Erzähl doch mal was von deiner Familie!'</t>
+  </si>
+  <si>
+    <t>'Sie haben ihre Kinder früh zur Selbstständigkeit erzogen'</t>
+  </si>
+  <si>
+    <t>'Habt ihr mit Wasser experimentiert'</t>
+  </si>
+  <si>
+    <t>'Wo warst du? Max hat schon dreimal nach dir gefragt'</t>
+  </si>
+  <si>
+    <t>'Der Klimawandel führt zu immer mehr Unwettern'</t>
+  </si>
+  <si>
+    <t>'Zu welcher Projektgruppe gehörst du?'</t>
+  </si>
+  <si>
+    <t>'Ich möchte dir zu deinem guten Prüfungsergebnis gratulieren'</t>
+  </si>
+  <si>
+    <t>'Er greift nach dem Treppengeländer'</t>
+  </si>
+  <si>
+    <t>'Die Firma handelt mit Schmuck'</t>
+  </si>
+  <si>
+    <t>'Das Buch handelt von drei Freunden'</t>
+  </si>
+  <si>
+    <t>'Was hälst du von dem neuen Büro?'</t>
+  </si>
+  <si>
+    <t>'Könntest du mir bitte beim Aufräumen helfen?'</t>
+  </si>
+  <si>
+    <t>'Hast du mal was von Tina und Moritz gehört?'</t>
+  </si>
+  <si>
+    <t>'Sie kommt sehr gut mit ihren Kolleginnen klar'</t>
+  </si>
+  <si>
+    <t>'Das klingt nach einem tollen Film'</t>
+  </si>
+  <si>
+    <t>'Kunden informieren sich nicht nur direkt bei den Anbieter'</t>
+  </si>
+  <si>
+    <t>'Er leidet an Asthma'</t>
+  </si>
+  <si>
+    <t>'Er leidet unter Schlaflosigkeit'</t>
+  </si>
+  <si>
+    <t>'Es liegt an seinem Ehrgeiz, dass er so weit gekommen ist'</t>
+  </si>
+  <si>
+    <t>'Meldest du dich morgen bei mir?'</t>
+  </si>
+  <si>
+    <t>'Kann ich dich heute zum Joggen motivieren?'</t>
+  </si>
+  <si>
+    <t>'Dein Paket ist nicht da? Hast du schon bei der Poststelle nachgefragt?'</t>
+  </si>
+  <si>
+    <t>'Wer hat von dem Kuchen genascht?'</t>
+  </si>
+  <si>
+    <t>'Er hat sich an seinen Vorbildern orientiert'</t>
+  </si>
+  <si>
+    <t>'Der Pulli passt gut zu der Hose'</t>
+  </si>
+  <si>
+    <t>'Ich rate dir zu einem Arztbesuch'</t>
+  </si>
+  <si>
+    <t>'Alle haben sich vor dem Feuer gerettet'</t>
+  </si>
+  <si>
+    <t>'Ich richte mich da ganz nach dir'</t>
+  </si>
+  <si>
+    <t>'Er schimpft den ganzen Tag mit seinem Hund'</t>
+  </si>
+  <si>
+    <t>'gehen sie umher und reden mit den Menschen'</t>
+  </si>
+  <si>
+    <t>'Wir reden von Autos und Technik'</t>
+  </si>
+  <si>
+    <t>'Die Schokolade schmeckt nach Nougat'</t>
+  </si>
+  <si>
+    <t>'Du solltest die Datei auf einer externen Festplatte speichern'</t>
+  </si>
+  <si>
+    <t>'Kann ich mal kurz mit dir sprechen?'</t>
+  </si>
+  <si>
+    <t>'Adrian hat den ganzen Abend nur von dir gesprochen'</t>
+  </si>
+  <si>
+    <t>'Mein Opa ist letztes Jahr an Krebs gestorben'</t>
+  </si>
+  <si>
+    <t>'Ich habe mich gestern mit meinem Freund gestritten'</t>
+  </si>
+  <si>
+    <t>'Viele Menschen suchen nach dem Sinn des Lebens. '</t>
+  </si>
+  <si>
+    <t>'Nimmst du auch am nächsten Kurs teil?'</t>
+  </si>
+  <si>
+    <t>'Ich habe gerade mit der Personalabteilung telefoniert'</t>
+  </si>
+  <si>
+    <t>'Ich träume von nächsten Urlaub'</t>
+  </si>
+  <si>
+    <t>'Moderne Technologien tendieren zu Unsichtbarkeit'</t>
+  </si>
+  <si>
+    <t>'Nach dem Kurs treffe ich mich noch mit Rosalie'</t>
+  </si>
+  <si>
+    <t>'Sie hat sich von ihrem alten Auto getrennt'</t>
+  </si>
+  <si>
+    <t>'Ich habe sie zu einem Ausflug überredet'</t>
+  </si>
+  <si>
+    <t>'Versuch nicht, mich vom Gegenteil zu überzeugen'</t>
+  </si>
+  <si>
+    <t>'Kannst du gut mit dem neuen Programm umgehen?'</t>
+  </si>
+  <si>
+    <t>'Meine Kinder unterbrechen mich ständig beim Telefonieren'</t>
+  </si>
+  <si>
+    <t>'Gestern habe ich mich lange mit meinem Chef unterhalten'</t>
+  </si>
+  <si>
+    <t>'Ein Pony unterscheidet sich deutlich von einem Pferd'</t>
+  </si>
+  <si>
+    <t>'Sie unterscheiden sich nach der Art ihrer Konstruktion'</t>
+  </si>
+  <si>
+    <t>'Kannst du mich bei dem Projekt unterstützen?'</t>
+  </si>
+  <si>
+    <t>'Ich würde mich gern mal mit ihr verabreden'</t>
+  </si>
+  <si>
+    <t>'Die Gäste haben sich von uns verabschiedet'</t>
+  </si>
+  <si>
+    <t>'Was verbindest du mit dem Begriff „Freundschaft"?'</t>
+  </si>
+  <si>
+    <t>'Man kann Äpfel nicht mit Birnen vergleichen'</t>
+  </si>
+  <si>
+    <t>'Was verlangst du von mir?'</t>
+  </si>
+  <si>
+    <t>'Er versteckt sich vor ihr'</t>
+  </si>
+  <si>
+    <t>'Valentin versteht sich sehr gut mir seinen Eltern'</t>
+  </si>
+  <si>
+    <t>'Kommt ihr nachher noch bei uns vorbei?'</t>
+  </si>
+  <si>
+    <t>'Das kommt bei meinem Computer öfter vor, dass er abstürzt'</t>
+  </si>
+  <si>
+    <t>'Er hat das Gedicht vor über 10 Leuten vorgetragen'</t>
+  </si>
+  <si>
+    <t>'Die Tiere laufen vor dem Feuer weg'</t>
+  </si>
+  <si>
+    <t>'Simon wünscht sich von mir ein Buch'</t>
+  </si>
+  <si>
+    <t>'Gestern ist mein Bruder von einer langen Reise zurückgekommen'</t>
+  </si>
+  <si>
+    <t>'Andere Klimaforscher warnen vor weiteren Nebenwirkungen'</t>
+  </si>
+  <si>
+    <t>'Walter zählt zu den besten Studenten der Universität'</t>
+  </si>
+  <si>
+    <t>'Zweifelst du an seiner Ehrlichkeit?'</t>
+  </si>
+  <si>
+    <t>'Niemand kann dich zu dieser Prüfung zwingen'</t>
   </si>
 </sst>
 </file>
@@ -676,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -687,6 +1161,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,13 +1474,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,13 +1488,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,13 +1502,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,13 +1516,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1055,13 +1530,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,13 +1544,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,27 +1558,27 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1586,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1600,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,27 +1614,27 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1642,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1656,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,13 +1670,13 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,13 +1684,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,13 +1698,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1712,13 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,13 +1726,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,13 +1740,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,13 +1754,13 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,13 +1768,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,55 +1782,55 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1363,13 +1838,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1377,13 +1852,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1391,13 +1866,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1405,27 +1880,27 @@
         <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,13 +1908,13 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,13 +1922,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,13 +1936,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,13 +1950,13 @@
         <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,13 +1964,13 @@
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,27 +1978,27 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,13 +2006,13 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,13 +2020,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,27 +2034,27 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,13 +2062,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,13 +2076,13 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,13 +2090,13 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,13 +2104,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,13 +2118,13 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +2132,13 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,13 +2146,13 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,13 +2160,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,13 +2174,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,13 +2188,13 @@
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1727,27 +2202,27 @@
         <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,13 +2230,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,13 +2244,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1783,13 +2258,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1797,13 +2272,13 @@
         <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,13 +2286,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D60" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,13 +2300,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,13 +2314,13 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,830 +2328,1735 @@
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C93" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" t="s">
-        <v>108</v>
+        <v>136</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>98</v>
+      </c>
+      <c r="D100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D103" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>98</v>
+      </c>
+      <c r="D122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C123" t="s">
+        <v>98</v>
+      </c>
+      <c r="D123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" t="s">
+        <v>98</v>
+      </c>
+      <c r="D124" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" t="s">
+        <v>98</v>
+      </c>
+      <c r="D126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" t="s">
+        <v>98</v>
+      </c>
+      <c r="D127" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" t="s">
+        <v>98</v>
+      </c>
+      <c r="D129" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" t="s">
+        <v>98</v>
+      </c>
+      <c r="D134" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" t="s">
+        <v>98</v>
+      </c>
+      <c r="D138" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D140" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" t="s">
+        <v>98</v>
+      </c>
+      <c r="D142" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" t="s">
+        <v>98</v>
+      </c>
+      <c r="D143" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C144" t="s">
+        <v>98</v>
+      </c>
+      <c r="D144" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C145" t="s">
+        <v>98</v>
+      </c>
+      <c r="D145" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
+        <v>98</v>
+      </c>
+      <c r="D146" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" t="s">
+        <v>98</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>100</v>
+      </c>
+      <c r="C148" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C150" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" t="s">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B107" t="s">
-        <v>116</v>
-      </c>
-      <c r="C107" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="C151" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" t="s">
+        <v>100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>98</v>
+      </c>
+      <c r="D152" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" t="s">
+        <v>102</v>
+      </c>
+      <c r="C153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C154" t="s">
+        <v>98</v>
+      </c>
+      <c r="D154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s">
+        <v>98</v>
+      </c>
+      <c r="D155" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C156" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C158" t="s">
+        <v>98</v>
+      </c>
+      <c r="D158" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" t="s">
+        <v>98</v>
+      </c>
+      <c r="D159" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" t="s">
+        <v>98</v>
+      </c>
+      <c r="D160" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" t="s">
+        <v>98</v>
+      </c>
+      <c r="D161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C163" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C108" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="C165" t="s">
+        <v>98</v>
+      </c>
+      <c r="D165" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B166" t="s">
+        <v>103</v>
+      </c>
+      <c r="C166" t="s">
+        <v>98</v>
+      </c>
+      <c r="D166" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>98</v>
+      </c>
+      <c r="D167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C168" t="s">
+        <v>98</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C109" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="C169" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C111" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C170" t="s">
+        <v>98</v>
+      </c>
+      <c r="D170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C171" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C112" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B114" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C172" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C115" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C117" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C173" t="s">
+        <v>98</v>
+      </c>
+      <c r="D173" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C174" t="s">
+        <v>98</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C175" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C176" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C118" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C119" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C120" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C122" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" t="s">
-        <v>106</v>
-      </c>
-      <c r="C123" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" t="s">
-        <v>103</v>
-      </c>
-      <c r="C124" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C125" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C126" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C128" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C129" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C130" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C131" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C177" t="s">
+        <v>98</v>
+      </c>
+      <c r="D177" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C178" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C179" t="s">
+        <v>98</v>
+      </c>
+      <c r="D179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C180" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C181" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C182" t="s">
+        <v>98</v>
+      </c>
+      <c r="D182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C183" t="s">
+        <v>98</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C132" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" t="s">
-        <v>101</v>
+      <c r="C184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D184" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" t="s">
+        <v>98</v>
+      </c>
+      <c r="D185" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C186" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
